--- a/FastExcels/test.xlsx
+++ b/FastExcels/test.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\npoi\examples\xssf\CopySheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Excel-Examples\FastExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F99BD08-EF30-4080-A3DD-D604F683A341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0405AE-A2C6-4E0D-96E4-64380BC7767B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="2205" windowWidth="23025" windowHeight="13395" xr2:uid="{462009CC-69BC-4117-AA6B-053E13E8DE35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{462009CC-69BC-4117-AA6B-053E13E8DE35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -60,11 +61,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -74,13 +75,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -111,7 +112,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -127,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -273,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -429,9 +430,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,12 +446,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -458,7 +459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -468,4 +469,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36976F9-D34F-4F5C-A279-045F2D9C9E69}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>